--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amy/Desktop/interfaceTest1/testFile/case/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46097B72-7EAB-2343-91EC-DC210C63A88E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="register" sheetId="2" r:id="rId2"/>
-    <sheet name="registerquick" sheetId="3" r:id="rId3"/>
-    <sheet name="accountSetting" sheetId="4" r:id="rId4"/>
-    <sheet name="updatePassword" sheetId="5" r:id="rId5"/>
-    <sheet name="addAddress" sheetId="6" r:id="rId6"/>
+    <sheet name="loginuser" sheetId="7" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId2"/>
+    <sheet name="register" sheetId="2" r:id="rId3"/>
+    <sheet name="registerquick" sheetId="3" r:id="rId4"/>
+    <sheet name="accountSetting" sheetId="4" r:id="rId5"/>
+    <sheet name="updatePassword" sheetId="5" r:id="rId6"/>
+    <sheet name="addAddress" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="181">
   <si>
     <t>case_name</t>
   </si>
@@ -535,19 +542,48 @@
   </si>
   <si>
     <t>addAddress_tokenNull</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneno</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardnum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b40ebe184b61ab0ff5b5cce9611e4d6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13166088360</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +596,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -567,111 +604,30 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,42 +635,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,198 +649,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -950,255 +690,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1220,74 +721,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1548,24 +1026,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF472E-7756-DF4B-B953-47ECD295A7B8}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="62.125" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1573,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>175</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -1595,185 +1072,298 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
+      <c r="B2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="interfa@163.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="interface2@163.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="D1" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="62.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1860,7 +1450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1889,7 +1479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1915,7 +1505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1941,7 +1531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1970,7 +1560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1996,7 +1586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2025,7 +1615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2055,206 +1645,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="interfa$163.com"/>
-    <hyperlink ref="D7" r:id="rId2" display="interface3@163.com"/>
-    <hyperlink ref="D8" r:id="rId2" display="interface3@163.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D6" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D9" r:id="rId3" display="interface4@163.com"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" customFormat="1" spans="1:7">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:7">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:7">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="facebook$163.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="facebook2@163.com" tooltip="mailto:facebook2@163.com"/>
-    <hyperlink ref="D6" r:id="rId2" display="facebook2@163.com"/>
-    <hyperlink ref="D5" r:id="rId2" display="facebook2@163.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="9" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2265,33 +1688,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2299,34 +1711,22 @@
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2334,34 +1734,22 @@
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2370,30 +1758,18 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2401,286 +1777,72 @@
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" tooltip="mailto:facebook2@163.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2691,27 +1853,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2720,27 +1888,33 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2748,25 +1922,34 @@
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>89</v>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2774,25 +1957,31 @@
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
+      <c r="E4" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2801,27 +1990,30 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2830,27 +2022,30 @@
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2859,159 +2054,550 @@
         <v>10</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>101</v>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="3" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="25.625" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="3" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3076,7 +2662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="16">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3141,7 +2727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="16">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -3204,7 +2790,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="16">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -3267,7 +2853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="16">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -3330,7 +2916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="16">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -3393,7 +2979,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="16">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -3458,7 +3044,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="16">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -3521,7 +3107,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="16">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -3586,7 +3172,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="16">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -3649,7 +3235,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" ht="16">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3714,7 +3300,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="16">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -3777,7 +3363,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="16">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -3840,7 +3426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" ht="16">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -3905,7 +3491,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" ht="16">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -3968,7 +3554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" ht="16">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -4033,7 +3619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="16">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -4098,7 +3684,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="16">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -4160,7 +3746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:17">
+    <row r="19" spans="1:21" ht="16">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4176,7 +3762,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="4:17">
+    <row r="20" spans="1:21" ht="16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4192,7 +3778,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="4:17">
+    <row r="21" spans="1:21" ht="16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4209,7 +3795,7 @@
       <c r="Q21" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>